--- a/medicine/Enfance/Polo_(personnage)/Polo_(personnage).xlsx
+++ b/medicine/Enfance/Polo_(personnage)/Polo_(personnage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Polo est un personnage de bande dessinée créé par Régis Faller en 2000 dans le magazine Les Belles Histoires, dans Tralalire et Pomme d'Api (Bayard-Presse), et dans 7 albums publiés par Bayard Édition.
@@ -513,7 +525,9 @@
           <t>Les débuts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Polo est né de l'envie de créer une bande dessinée sans parole pour les tout petits.
 Cette BD a pu ainsi être lue par des non-lecteurs et constitue en cela une première.
@@ -545,7 +559,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les histoires de Polo se déroulent dans un univers onirique, il est entouré d'une galerie de personnages : son amie Lili, des petits êtres phosphorescents, les luniens, un bonhomme de neige Oscar et un dragon facétieux Diégo.
 Les livres de Polo abordent les thèmes de la solitude, de l'amitié et de l'amour, du rêve et de la magie, le tout vu à hauteur d'enfant.
